--- a/Measurement Analysis/K15T2-Team22-Team Assignment14/DashBoard_1.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment14/DashBoard_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755" tabRatio="931" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755" tabRatio="931" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Defect statitic" sheetId="13" r:id="rId11"/>
     <sheet name="Defect History" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1435,6 +1435,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1451,24 +1469,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="12" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
@@ -2126,11 +2126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94459008"/>
-        <c:axId val="94460928"/>
+        <c:axId val="100162560"/>
+        <c:axId val="103326848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94459008"/>
+        <c:axId val="100162560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94460928"/>
+        <c:crossAx val="103326848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2157,7 +2157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94460928"/>
+        <c:axId val="103326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94459008"/>
+        <c:crossAx val="100162560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2498,12 +2498,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="100580352"/>
-        <c:axId val="100586240"/>
+        <c:axId val="45291008"/>
+        <c:axId val="45292544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100580352"/>
+        <c:axId val="45291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100586240"/>
+        <c:crossAx val="45292544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2520,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100586240"/>
+        <c:axId val="45292544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2536,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="100580352"/>
+        <c:crossAx val="45291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2587,7 +2587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2759,12 +2758,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="100611968"/>
-        <c:axId val="100613504"/>
+        <c:axId val="45322624"/>
+        <c:axId val="45324160"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100611968"/>
+        <c:axId val="45322624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100613504"/>
+        <c:crossAx val="45324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100613504"/>
+        <c:axId val="45324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2791,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100611968"/>
+        <c:crossAx val="45322624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,11 +3401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89283968"/>
-        <c:axId val="89290240"/>
+        <c:axId val="45778816"/>
+        <c:axId val="45780992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89283968"/>
+        <c:axId val="45778816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,7 +3424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89290240"/>
+        <c:crossAx val="45780992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3433,7 +3432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89290240"/>
+        <c:axId val="45780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89283968"/>
+        <c:crossAx val="45778816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3709,11 +3708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100756096"/>
-        <c:axId val="100758272"/>
+        <c:axId val="77595392"/>
+        <c:axId val="77597312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100756096"/>
+        <c:axId val="77595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -3728,14 +3727,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100758272"/>
+        <c:crossAx val="77597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
         <c:minorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100758272"/>
+        <c:axId val="77597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -3751,7 +3750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100756096"/>
+        <c:crossAx val="77595392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -3964,12 +3963,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100998528"/>
-        <c:axId val="101000320"/>
+        <c:axId val="96769536"/>
+        <c:axId val="96771072"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100998528"/>
+        <c:axId val="96769536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3977,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101000320"/>
+        <c:crossAx val="96771072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +3985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101000320"/>
+        <c:axId val="96771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,7 +4015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100998528"/>
+        <c:crossAx val="96769536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4063,7 +4062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4235,12 +4233,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="101058816"/>
-        <c:axId val="101064704"/>
+        <c:axId val="96969088"/>
+        <c:axId val="96970624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101058816"/>
+        <c:axId val="96969088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +4247,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101064704"/>
+        <c:crossAx val="96970624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4257,7 +4255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101064704"/>
+        <c:axId val="96970624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101058816"/>
+        <c:crossAx val="96969088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4326,7 +4324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4487,12 +4484,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="101100160"/>
-        <c:axId val="101101952"/>
+        <c:axId val="97014528"/>
+        <c:axId val="97016064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101100160"/>
+        <c:axId val="97014528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,7 +4499,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101101952"/>
+        <c:crossAx val="97016064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4510,7 +4507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101101952"/>
+        <c:axId val="97016064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4518,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101100160"/>
+        <c:crossAx val="97014528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4580,7 +4577,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4751,12 +4747,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="93977600"/>
-        <c:axId val="93848320"/>
+        <c:axId val="97154176"/>
+        <c:axId val="97155712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93977600"/>
+        <c:axId val="97154176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,7 +4762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93848320"/>
+        <c:crossAx val="97155712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4774,7 +4770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93848320"/>
+        <c:axId val="97155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,14 +4778,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93977600"/>
+        <c:crossAx val="97154176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,12 +5005,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="93904896"/>
-        <c:axId val="93906432"/>
+        <c:axId val="97195904"/>
+        <c:axId val="97197440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93904896"/>
+        <c:axId val="97195904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5019,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93906432"/>
+        <c:crossAx val="97197440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5032,7 +5027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93906432"/>
+        <c:axId val="97197440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,7 +5038,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93904896"/>
+        <c:crossAx val="97195904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5260,12 +5255,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="32218112"/>
-        <c:axId val="32236288"/>
+        <c:axId val="97277056"/>
+        <c:axId val="97278592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="32218112"/>
+        <c:axId val="97277056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5274,7 +5269,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32236288"/>
+        <c:crossAx val="97278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5282,7 +5277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32236288"/>
+        <c:axId val="97278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5288,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32218112"/>
+        <c:crossAx val="97277056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5549,11 +5544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99848960"/>
-        <c:axId val="99850880"/>
+        <c:axId val="44788352"/>
+        <c:axId val="44790528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99848960"/>
+        <c:axId val="44788352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -5568,14 +5563,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99850880"/>
+        <c:crossAx val="44790528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
         <c:minorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99850880"/>
+        <c:axId val="44790528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -5591,7 +5586,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99848960"/>
+        <c:crossAx val="44788352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -5807,12 +5802,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="32460160"/>
-        <c:axId val="32490624"/>
+        <c:axId val="97351168"/>
+        <c:axId val="97352704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="32460160"/>
+        <c:axId val="97351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,7 +5816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32490624"/>
+        <c:crossAx val="97352704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5829,7 +5824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32490624"/>
+        <c:axId val="97352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5840,7 +5835,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32460160"/>
+        <c:crossAx val="97351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6058,12 +6053,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1822720"/>
-        <c:axId val="1824256"/>
+        <c:axId val="97445760"/>
+        <c:axId val="97447296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1822720"/>
+        <c:axId val="97445760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,7 +6067,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1824256"/>
+        <c:crossAx val="97447296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6080,7 +6075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1824256"/>
+        <c:axId val="97447296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1822720"/>
+        <c:crossAx val="97445760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6417,12 +6412,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="32619520"/>
-        <c:axId val="32625408"/>
+        <c:axId val="97682560"/>
+        <c:axId val="97684096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="32619520"/>
+        <c:axId val="97682560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6431,7 +6426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32625408"/>
+        <c:crossAx val="97684096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6439,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32625408"/>
+        <c:axId val="97684096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,7 +6450,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32619520"/>
+        <c:crossAx val="97682560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6507,7 +6502,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6666,12 +6660,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100195328"/>
-        <c:axId val="100209408"/>
+        <c:axId val="44823680"/>
+        <c:axId val="44825216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100195328"/>
+        <c:axId val="44823680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6680,7 +6674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100209408"/>
+        <c:crossAx val="44825216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6688,7 +6682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100209408"/>
+        <c:axId val="44825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,14 +6705,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100195328"/>
+        <c:crossAx val="44823680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6770,7 +6763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6931,12 +6923,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100226560"/>
-        <c:axId val="100228096"/>
+        <c:axId val="44846464"/>
+        <c:axId val="44860544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100226560"/>
+        <c:axId val="44846464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,7 +6938,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100228096"/>
+        <c:crossAx val="44860544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6954,7 +6946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100228096"/>
+        <c:axId val="44860544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6965,7 +6957,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100226560"/>
+        <c:crossAx val="44846464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,7 +7016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7195,12 +7186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100257152"/>
-        <c:axId val="100263040"/>
+        <c:axId val="44883328"/>
+        <c:axId val="44885120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100257152"/>
+        <c:axId val="44883328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7210,7 +7201,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100263040"/>
+        <c:crossAx val="44885120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7218,7 +7209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100263040"/>
+        <c:axId val="44885120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7226,14 +7217,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100257152"/>
+        <c:crossAx val="44883328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7297,7 +7287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7467,12 +7456,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100294656"/>
-        <c:axId val="100296192"/>
+        <c:axId val="45035520"/>
+        <c:axId val="45037056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100294656"/>
+        <c:axId val="45035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7481,7 +7470,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100296192"/>
+        <c:crossAx val="45037056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7489,7 +7478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100296192"/>
+        <c:axId val="45037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +7489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100294656"/>
+        <c:crossAx val="45035520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7555,7 +7544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7715,12 +7703,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100312960"/>
-        <c:axId val="100314496"/>
+        <c:axId val="45060096"/>
+        <c:axId val="45061632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100312960"/>
+        <c:axId val="45060096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7729,7 +7717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100314496"/>
+        <c:crossAx val="45061632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7737,7 +7725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100314496"/>
+        <c:axId val="45061632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7748,14 +7736,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100312960"/>
+        <c:crossAx val="45060096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7961,12 +7948,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100496128"/>
-        <c:axId val="100497664"/>
+        <c:axId val="45079168"/>
+        <c:axId val="45085056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100496128"/>
+        <c:axId val="45079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,7 +7962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100497664"/>
+        <c:crossAx val="45085056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7983,7 +7970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100497664"/>
+        <c:axId val="45085056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7994,7 +7981,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100496128"/>
+        <c:crossAx val="45079168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8211,12 +8198,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100528512"/>
-        <c:axId val="100530048"/>
+        <c:axId val="45177472"/>
+        <c:axId val="45187456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100528512"/>
+        <c:axId val="45177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8225,7 +8212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100530048"/>
+        <c:crossAx val="45187456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8233,7 +8220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100530048"/>
+        <c:axId val="45187456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8247,7 +8234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100528512"/>
+        <c:crossAx val="45177472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17113,43 +17100,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="41" spans="10:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J41" s="113" t="s">
+      <c r="J41" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="106"/>
       <c r="M61" s="103"/>
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
       <c r="M62" s="103"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -17168,111 +17155,111 @@
       <c r="M63" s="103"/>
     </row>
     <row r="85" spans="10:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="110" t="s">
+      <c r="J85" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="110"/>
-      <c r="L85" s="110"/>
-      <c r="M85" s="110"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
     </row>
     <row r="86" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J86" s="110"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="110"/>
-      <c r="M86" s="110"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="104"/>
+      <c r="L86" s="104"/>
+      <c r="M86" s="104"/>
     </row>
     <row r="115" spans="12:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L115" s="114" t="s">
+      <c r="L115" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="M115" s="114"/>
-      <c r="N115" s="114"/>
-      <c r="O115" s="114"/>
+      <c r="M115" s="108"/>
+      <c r="N115" s="108"/>
+      <c r="O115" s="108"/>
     </row>
     <row r="137" spans="10:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J137" s="115" t="s">
+      <c r="J137" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="115"/>
-      <c r="L137" s="115"/>
-      <c r="M137" s="115"/>
+      <c r="K137" s="109"/>
+      <c r="L137" s="109"/>
+      <c r="M137" s="109"/>
     </row>
     <row r="160" spans="10:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J160" s="107" t="s">
+      <c r="J160" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="K160" s="107"/>
-      <c r="L160" s="107"/>
-      <c r="M160" s="107"/>
+      <c r="K160" s="113"/>
+      <c r="L160" s="113"/>
+      <c r="M160" s="113"/>
     </row>
     <row r="186" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J186" s="108" t="s">
+      <c r="J186" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="K186" s="108"/>
-      <c r="L186" s="108"/>
-      <c r="M186" s="108"/>
+      <c r="K186" s="114"/>
+      <c r="L186" s="114"/>
+      <c r="M186" s="114"/>
     </row>
     <row r="187" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J207" s="109" t="s">
+      <c r="J207" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="K207" s="109"/>
-      <c r="L207" s="109"/>
-      <c r="M207" s="109"/>
+      <c r="K207" s="115"/>
+      <c r="L207" s="115"/>
+      <c r="M207" s="115"/>
     </row>
     <row r="208" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="229" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J229" s="111" t="s">
+      <c r="J229" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="K229" s="111"/>
-      <c r="L229" s="111"/>
-      <c r="M229" s="111"/>
+      <c r="K229" s="105"/>
+      <c r="L229" s="105"/>
+      <c r="M229" s="105"/>
     </row>
     <row r="230" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J253" s="104" t="s">
+      <c r="J253" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="K253" s="104"/>
-      <c r="L253" s="104"/>
-      <c r="M253" s="104"/>
+      <c r="K253" s="110"/>
+      <c r="L253" s="110"/>
+      <c r="M253" s="110"/>
     </row>
     <row r="254" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="277" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J277" s="105" t="s">
+      <c r="J277" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="K277" s="105"/>
-      <c r="L277" s="105"/>
-      <c r="M277" s="105"/>
+      <c r="K277" s="111"/>
+      <c r="L277" s="111"/>
+      <c r="M277" s="111"/>
     </row>
     <row r="278" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="300" spans="10:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J300" s="106" t="s">
+      <c r="J300" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="K300" s="106"/>
-      <c r="L300" s="106"/>
-      <c r="M300" s="106"/>
+      <c r="K300" s="112"/>
+      <c r="L300" s="112"/>
+      <c r="M300" s="112"/>
     </row>
     <row r="301" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J253:M253"/>
+    <mergeCell ref="J277:M277"/>
+    <mergeCell ref="J300:M300"/>
+    <mergeCell ref="J160:M160"/>
+    <mergeCell ref="J186:M186"/>
+    <mergeCell ref="J207:M207"/>
     <mergeCell ref="J85:M86"/>
     <mergeCell ref="J229:M229"/>
     <mergeCell ref="A61:L62"/>
     <mergeCell ref="J41:M41"/>
     <mergeCell ref="L115:O115"/>
     <mergeCell ref="J137:M137"/>
-    <mergeCell ref="J253:M253"/>
-    <mergeCell ref="J277:M277"/>
-    <mergeCell ref="J300:M300"/>
-    <mergeCell ref="J160:M160"/>
-    <mergeCell ref="J186:M186"/>
-    <mergeCell ref="J207:M207"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J41:M41" location="'Earn Value'!A1" display="Detail"/>
@@ -17298,7 +17285,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18494,7 +18481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:I18"/>
     </sheetView>
   </sheetViews>
@@ -39565,36 +39552,36 @@
     <row r="94" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="112" t="s">
+      <c r="B96" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="112"/>
-      <c r="D96" s="112"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="112"/>
-      <c r="G96" s="112"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="112"/>
-      <c r="L96" s="112"/>
-      <c r="M96" s="112"/>
-      <c r="N96" s="112"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="I96" s="106"/>
+      <c r="J96" s="106"/>
+      <c r="K96" s="106"/>
+      <c r="L96" s="106"/>
+      <c r="M96" s="106"/>
+      <c r="N96" s="106"/>
     </row>
     <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="112"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="112"/>
-      <c r="M97" s="112"/>
-      <c r="N97" s="112"/>
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="106"/>
+      <c r="L97" s="106"/>
+      <c r="M97" s="106"/>
+      <c r="N97" s="106"/>
     </row>
     <row r="148" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K148" s="117" t="s">
@@ -39624,7 +39611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -42862,7 +42849,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44185,7 +44172,7 @@
         <f>O8</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <f>(B12*$B$15+C12*$B$16+D12*$B$17+E12*$B$18+F12*$B$19)/5</f>
         <v>3.0999999999999992</v>
       </c>
@@ -44258,7 +44245,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B15" sqref="A15:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45501,7 +45488,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
